--- a/Images/Img Links.xlsx
+++ b/Images/Img Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Img</t>
   </si>
@@ -54,6 +54,87 @@
   </si>
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/VWQCYy1/kfc-logo.png" alt="kfc-logo" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/rtpHFwb/macd.png" alt="macd" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/3fr0P6P/oceanfood.png" alt="oceanfood" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/qnnZXG4/pizzahut.png" alt="pizzahut" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/xY0ZgWP/subway.png" alt="subway" /&gt;</t>
+  </si>
+  <si>
+    <t>dominos</t>
+  </si>
+  <si>
+    <t>kfc</t>
+  </si>
+  <si>
+    <t>macd</t>
+  </si>
+  <si>
+    <t>oceanfood</t>
+  </si>
+  <si>
+    <t>pizzahut</t>
+  </si>
+  <si>
+    <t>subway</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/0rTVSvD/dominos.jpg" alt="dominos" /&gt;</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>cuisine1</t>
+  </si>
+  <si>
+    <t>cuisine2</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/QXzv7vy/cuisine1.jpg" alt="cuisine1" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/4RGLrVx/cuisine2.jpg" alt="cuisine2" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/vYbtL4h/finallogo.png" alt="finallogo" /&gt;</t>
+  </si>
+  <si>
+    <t>finallogo</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/wBJj9cX/breakfast.jpg" alt="breakfast" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/3kpMHSJ/dinner.jpg" alt="dinner" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/7Jpt3JK/Vegetarian-Pappardelle-with-zucchini-and-eggplant-Fresh-vegetable-salad-with-sun-dried-tomato-spinac.jpg" alt="lunch" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/8cjYXkR/nightlife.jpg" alt="nightlife" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/HT4t2Dk/Ketogenic-samosa-Quebec-Canada.jpg" alt="snacks" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/XXnVJQS/drinks.jpg" alt="drinks" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/fH6JGXm/coupon.jpg" alt="coupon" &gt;</t>
+  </si>
+  <si>
+    <t>coupon</t>
   </si>
 </sst>
 </file>
@@ -402,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,9 +510,7 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
@@ -454,100 +533,214 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
